--- a/biology/Zoologie/Coquette_de_Verreaux/Coquette_de_Verreaux.xlsx
+++ b/biology/Zoologie/Coquette_de_Verreaux/Coquette_de_Verreaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophornis verreauxii
 La Coquette de Verreaux (Lophornis verreauxii) est une espèce de passereaux de la famille des Trochilidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau peuple l'Amazonie. Il se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Pérou et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau peuple l'Amazonie. Il se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Pérou et au Venezuela.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la description faite en 1853[2], il est indiqué que l'holotype de cette espèce a une longueur totale de 90 mm et un bec noir de 19 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la description faite en 1853, il est indiqué que l'holotype de cette espèce a une longueur totale de 90 mm et un bec noir de 19 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 avril 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 avril 2024) :
 Lophornis verreauxii klagesi von Berlepsch &amp; Hartert, 1902
 Lophornis verreauxii verreauxii Bourcier, 1853</t>
         </is>
@@ -606,10 +624,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Lophornis verreauxii Bourcier, 1853[3],[2].
-Lophornis verreauxii a pour synonyme[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Lophornis verreauxii Bourcier, 1853,.
+Lophornis verreauxii a pour synonyme :
 Lophornis chalybeus verreauxii Bourcier, 1853</t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, verreauxii, lui a été donnée en l'honneur de l'ornithologue français Édouard Verreaux (1810-1868) qui possède « le type unique qui orne la magnifique collection de Trochilidés de cet amateur classique »[2]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, verreauxii, lui a été donnée en l'honneur de l'ornithologue français Édouard Verreaux (1810-1868) qui possède « le type unique qui orne la magnifique collection de Trochilidés de cet amateur classique ». 
 </t>
         </is>
       </c>
